--- a/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
+++ b/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
     <definedName name="step">'#system'!$V$2:$V$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$121</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
     <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
     <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -2019,13 +2019,19 @@
   <si>
     <t>expects(var,default)</t>
   </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="95" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2536,8 +2542,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3168,8 +3275,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -4335,6 +4595,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4342,7 +4884,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="119">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4622,52 +5164,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="69" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5052,7 +5642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5984,7 +6574,7 @@
         <v>390</v>
       </c>
       <c r="W21" t="s">
-        <v>107</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22">
@@ -6556,7 +7146,7 @@
         <v>274</v>
       </c>
       <c r="W82" t="s">
-        <v>198</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83">
@@ -6564,7 +7154,7 @@
         <v>269</v>
       </c>
       <c r="W83" t="s">
-        <v>452</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84">
@@ -6572,7 +7162,7 @@
         <v>286</v>
       </c>
       <c r="W84" t="s">
-        <v>199</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85">
@@ -6580,7 +7170,7 @@
         <v>270</v>
       </c>
       <c r="W85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -6588,7 +7178,7 @@
         <v>271</v>
       </c>
       <c r="W86" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -6596,7 +7186,7 @@
         <v>303</v>
       </c>
       <c r="W87" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88">
@@ -6604,7 +7194,7 @@
         <v>309</v>
       </c>
       <c r="W88" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
@@ -6612,7 +7202,7 @@
         <v>293</v>
       </c>
       <c r="W89" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -6620,7 +7210,7 @@
         <v>338</v>
       </c>
       <c r="W90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91">
@@ -6628,7 +7218,7 @@
         <v>275</v>
       </c>
       <c r="W91" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92">
@@ -6636,151 +7226,156 @@
         <v>276</v>
       </c>
       <c r="W92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
       <c r="W93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94">
       <c r="W94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95">
       <c r="W95" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="W96" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97">
       <c r="W97" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="W98" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="W99" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100">
       <c r="W100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="W101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="W102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="W103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="W104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="W105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="W106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="W107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="W108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="W109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="W110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="W111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="W112" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="W113" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114">
       <c r="W114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="W115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="W116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="W117" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="W118" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
       <c r="W119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="W120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121">
       <c r="W121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="W122" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
+++ b/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
@@ -21,37 +21,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -2025,13 +2026,85 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="95" x14ac:knownFonts="1">
+  <fonts count="143" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2643,8 +2716,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3428,8 +3804,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4877,6 +5712,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4884,7 +6565,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5212,52 +6893,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="101" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="114" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="117" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5642,7 +7467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5664,78 +7489,81 @@
         <v>453</v>
       </c>
       <c r="D1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>345</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>331</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>538</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>194</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>394</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>410</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>355</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>395</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>412</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5750,79 +7578,82 @@
         <v>454</v>
       </c>
       <c r="D2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>448</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>459</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>313</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>382</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>433</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>539</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>415</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>428</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>251</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>215</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>396</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>417</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>379</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>405</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>95</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>169</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>174</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>181</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>430</v>
       </c>
-      <c r="AB2" t="s">
-        <v>226</v>
+      <c r="AC2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="3">
@@ -5836,1546 +7667,1618 @@
         <v>455</v>
       </c>
       <c r="D3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>363</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>474</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>347</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>339</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>332</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>84</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>542</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>429</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>238</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>216</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>397</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>419</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>380</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>406</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>96</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>170</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>175</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>362</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" t="s">
-        <v>227</v>
+      <c r="AC3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
         <v>372</v>
       </c>
       <c r="D4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>385</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>449</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>475</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>348</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>236</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>333</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>541</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>239</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>217</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>398</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>420</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>356</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>407</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>352</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>171</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>182</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>422</v>
       </c>
-      <c r="AB4" t="s">
-        <v>228</v>
+      <c r="AC4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
       </c>
       <c r="D5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" t="s">
         <v>457</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>431</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>334</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>349</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>460</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>240</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>218</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>399</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>421</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>357</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>353</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>172</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>177</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>183</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>423</v>
       </c>
-      <c r="AB5" t="s">
-        <v>229</v>
+      <c r="AC5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>374</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G6" t="s">
         <v>386</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>446</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>346</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>241</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>389</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>400</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>359</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>97</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>443</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>178</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>184</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>424</v>
       </c>
-      <c r="AB6" t="s">
-        <v>230</v>
+      <c r="AC6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>375</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>222</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>364</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>445</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>313</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>242</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>416</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>401</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>358</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>98</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>444</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>185</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>425</v>
       </c>
-      <c r="AB7" t="s">
-        <v>231</v>
+      <c r="AC7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>316</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>365</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>326</v>
       </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
+        <v>563</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>89</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>243</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>402</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>360</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>99</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>173</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>180</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>186</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>426</v>
       </c>
-      <c r="AB8" t="s">
-        <v>232</v>
+      <c r="AC8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>377</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>304</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>327</v>
       </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>90</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>244</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>403</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>361</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>207</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>187</v>
       </c>
-      <c r="AB9" t="s">
-        <v>472</v>
+      <c r="AC9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
         <v>313</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>350</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>450</v>
       </c>
-      <c r="J10" t="s">
-        <v>388</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>435</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>245</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>404</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>255</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>188</v>
       </c>
-      <c r="AB10" t="s">
-        <v>473</v>
+      <c r="AC10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>253</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>272</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>320</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>564</v>
+      </c>
+      <c r="M11" t="s">
         <v>469</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>91</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>246</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>256</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
-        <v>233</v>
+      <c r="AC11" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" t="s">
         <v>317</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>261</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>321</v>
       </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M12" t="s">
         <v>434</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>247</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>100</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>189</v>
       </c>
-      <c r="AB12" t="s">
-        <v>234</v>
+      <c r="AC12" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>538</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>339</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>314</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>322</v>
       </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
         <v>470</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>92</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>252</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>324</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>190</v>
       </c>
-      <c r="AB13" t="s">
-        <v>235</v>
+      <c r="AC13" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>262</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>323</v>
       </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>93</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>248</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>101</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>191</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>263</v>
       </c>
-      <c r="J15" t="s">
-        <v>461</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
+        <v>565</v>
+      </c>
+      <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="O15" t="s">
-        <v>94</v>
-      </c>
       <c r="P15" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q15" t="s">
         <v>249</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>102</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>192</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>383</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>315</v>
       </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q16" t="s">
         <v>250</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>73</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>193</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
         <v>384</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>87</v>
       </c>
-      <c r="J17" t="s">
-        <v>82</v>
-      </c>
-      <c r="W17" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA17" t="s">
         <v>465</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>394</v>
-      </c>
-      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
         <v>413</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>88</v>
       </c>
-      <c r="J18" t="s">
-        <v>378</v>
-      </c>
-      <c r="W18" t="s">
-        <v>104</v>
+      <c r="K18" t="s">
+        <v>461</v>
+      </c>
+      <c r="X18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D19" t="s">
+        <v>394</v>
+      </c>
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>294</v>
       </c>
-      <c r="J19" t="s">
-        <v>468</v>
-      </c>
-      <c r="W19" t="s">
-        <v>105</v>
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
-      </c>
-      <c r="D20" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>295</v>
       </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="W20" t="s">
-        <v>106</v>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+      <c r="X20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>355</v>
-      </c>
-      <c r="D21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" t="s">
         <v>254</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>296</v>
       </c>
-      <c r="J21" t="s">
-        <v>390</v>
-      </c>
-      <c r="W21" t="s">
-        <v>543</v>
+      <c r="K21" t="s">
+        <v>378</v>
+      </c>
+      <c r="X21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>395</v>
-      </c>
-      <c r="D22" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>297</v>
       </c>
-      <c r="J22" t="s">
-        <v>83</v>
-      </c>
-      <c r="W22" t="s">
-        <v>108</v>
+      <c r="K22" t="s">
+        <v>468</v>
+      </c>
+      <c r="X22" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E23" t="s">
         <v>319</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>288</v>
       </c>
-      <c r="J23" t="s">
-        <v>432</v>
-      </c>
-      <c r="W23" t="s">
-        <v>109</v>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>277</v>
       </c>
-      <c r="J24" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" t="s">
-        <v>110</v>
+      <c r="K24" t="s">
+        <v>390</v>
+      </c>
+      <c r="X24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>447</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>74</v>
       </c>
-      <c r="J25" t="s">
-        <v>45</v>
-      </c>
-      <c r="W25" t="s">
-        <v>111</v>
+      <c r="K25" t="s">
+        <v>83</v>
+      </c>
+      <c r="X25" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
         <v>223</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>280</v>
       </c>
-      <c r="W26" t="s">
-        <v>112</v>
+      <c r="K26" t="s">
+        <v>432</v>
+      </c>
+      <c r="X26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>412</v>
-      </c>
-      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
         <v>224</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>264</v>
       </c>
-      <c r="W27" t="s">
-        <v>325</v>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X27" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" t="s">
+        <v>466</v>
+      </c>
+      <c r="G28" t="s">
+        <v>281</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>225</v>
       </c>
-      <c r="D28" t="s">
-        <v>466</v>
-      </c>
-      <c r="F28" t="s">
-        <v>281</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>467</v>
+      </c>
+      <c r="G29" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>467</v>
-      </c>
-      <c r="F29" t="s">
-        <v>282</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" t="s">
+        <v>214</v>
+      </c>
+      <c r="X30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>414</v>
-      </c>
-      <c r="F30" t="s">
-        <v>214</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" t="s">
-        <v>273</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>283</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>567</v>
+      </c>
+      <c r="X33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X35" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X38" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X39" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X40" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
         <v>287</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X43" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
         <v>341</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
         <v>340</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X46" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X47" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
         <v>318</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
         <v>337</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
         <v>366</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X50" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
         <v>300</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
         <v>354</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X52" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
         <v>329</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X53" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X54" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
         <v>290</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X55" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X56" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X57" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X58" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
         <v>310</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X59" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
         <v>335</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
         <v>307</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X61" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
         <v>308</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X62" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
         <v>367</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X64" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
         <v>343</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X65" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
         <v>311</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X66" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X67" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
         <v>351</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X68" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
         <v>312</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
         <v>408</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X70" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X71" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
         <v>260</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X73" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>568</v>
+      </c>
+      <c r="X74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75" t="s">
         <v>342</v>
       </c>
-      <c r="W73" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" t="s">
+      <c r="X75" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76" t="s">
         <v>278</v>
       </c>
-      <c r="W74" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="s">
+      <c r="X76" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="W75" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" t="s">
+      <c r="X77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78" t="s">
         <v>289</v>
       </c>
-      <c r="W76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="s">
+      <c r="X78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79" t="s">
         <v>427</v>
       </c>
-      <c r="W77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" t="s">
+      <c r="X79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="G80" t="s">
         <v>330</v>
       </c>
-      <c r="W78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="s">
+      <c r="X80" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
         <v>268</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
         <v>279</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X82" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
         <v>285</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X83" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X84" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
         <v>269</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X85" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
         <v>286</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X86" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
         <v>270</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X87" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
         <v>271</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X88" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
         <v>303</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X89" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
         <v>309</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X90" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
         <v>293</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X91" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
         <v>338</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X92" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
+    <row r="93">
+      <c r="G93" t="s">
         <v>275</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X93" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
+    <row r="94">
+      <c r="G94" t="s">
         <v>276</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X94" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="X101" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
+++ b/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
@@ -34,26 +34,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -2152,13 +2153,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="79" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2467,8 +2489,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="64">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2827,8 +3051,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3430,6 +3994,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3437,7 +4565,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3629,52 +4757,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="51" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="66" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="50" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="81" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="84" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4089,7 +5313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4141,51 +5365,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>578</v>
+      </c>
+      <c r="O1" t="s">
         <v>536</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>192</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>235</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>392</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>408</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>409</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>353</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>393</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>410</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4230,51 +5457,54 @@
         <v>431</v>
       </c>
       <c r="N2" t="s">
+        <v>579</v>
+      </c>
+      <c r="O2" t="s">
         <v>537</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>413</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>249</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>213</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>394</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>415</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>416</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>377</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>403</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>167</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>551</v>
       </c>
     </row>
@@ -4319,45 +5549,48 @@
         <v>84</v>
       </c>
       <c r="N3" t="s">
+        <v>580</v>
+      </c>
+      <c r="O3" t="s">
         <v>539</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>427</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>236</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>214</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>395</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>417</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>378</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>168</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>360</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>180</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4399,45 +5632,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>581</v>
+      </c>
+      <c r="O4" t="s">
         <v>538</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>237</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>215</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>396</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>418</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>354</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>350</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>169</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>180</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>420</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4472,40 +5708,43 @@
       <c r="M5" t="s">
         <v>85</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>238</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>216</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>397</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>419</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>355</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>351</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>181</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>421</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4537,37 +5776,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>239</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>387</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>398</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>357</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>441</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>176</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>182</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>422</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4593,37 +5835,40 @@
       <c r="M7" t="s">
         <v>311</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>240</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>414</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>399</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>356</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>97</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>442</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>177</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>183</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>423</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4649,34 +5894,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>89</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>241</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>400</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>358</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>98</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>171</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>178</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>184</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>424</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4702,25 +5947,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>242</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>401</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>359</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4743,22 +5988,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>433</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>243</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>402</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4781,19 +6026,19 @@
       <c r="M11" t="s">
         <v>467</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>552</v>
       </c>
     </row>
@@ -4816,19 +6061,19 @@
       <c r="M12" t="s">
         <v>432</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>553</v>
       </c>
     </row>
@@ -4851,25 +6096,25 @@
       <c r="M13" t="s">
         <v>468</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -4886,25 +6131,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>93</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>536</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -4918,25 +6163,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>547</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
         <v>381</v>
@@ -4950,25 +6195,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>548</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>382</v>
@@ -4979,19 +6224,19 @@
       <c r="K17" t="s">
         <v>80</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>549</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>463</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
         <v>411</v>
@@ -5002,16 +6247,16 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>392</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>58</v>
@@ -5022,16 +6267,16 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
@@ -5042,16 +6287,16 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E21" t="s">
         <v>252</v>
@@ -5062,16 +6307,16 @@
       <c r="K21" t="s">
         <v>376</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -5082,13 +6327,13 @@
       <c r="K22" t="s">
         <v>466</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
         <v>317</v>
@@ -5099,13 +6344,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>393</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -5116,13 +6361,13 @@
       <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>445</v>
@@ -5133,13 +6378,13 @@
       <c r="K25" t="s">
         <v>83</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>221</v>
@@ -5150,13 +6395,13 @@
       <c r="K26" t="s">
         <v>430</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>222</v>
@@ -5167,13 +6412,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>464</v>
@@ -5184,13 +6429,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="E29" t="s">
         <v>465</v>
@@ -5198,18 +6443,21 @@
       <c r="G29" t="s">
         <v>280</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
       <c r="E30" t="s">
         <v>412</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5220,7 +6468,7 @@
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5231,7 +6479,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5242,7 +6490,7 @@
       <c r="G33" t="s">
         <v>564</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5253,7 +6501,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5264,7 +6512,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5275,7 +6523,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5286,7 +6534,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5297,7 +6545,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5305,7 +6553,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5313,7 +6561,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5321,7 +6569,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5329,7 +6577,7 @@
       <c r="G42" t="s">
         <v>285</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5337,7 +6585,7 @@
       <c r="G43" t="s">
         <v>296</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5345,7 +6593,7 @@
       <c r="G44" t="s">
         <v>297</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5353,7 +6601,7 @@
       <c r="G45" t="s">
         <v>339</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5361,7 +6609,7 @@
       <c r="G46" t="s">
         <v>338</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5369,7 +6617,7 @@
       <c r="G47" t="s">
         <v>207</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5377,7 +6625,7 @@
       <c r="G48" t="s">
         <v>316</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5385,7 +6633,7 @@
       <c r="G49" t="s">
         <v>335</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5393,7 +6641,7 @@
       <c r="G50" t="s">
         <v>364</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5401,7 +6649,7 @@
       <c r="G51" t="s">
         <v>298</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5409,7 +6657,7 @@
       <c r="G52" t="s">
         <v>352</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5417,7 +6665,7 @@
       <c r="G53" t="s">
         <v>327</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5425,7 +6673,7 @@
       <c r="G54" t="s">
         <v>264</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5433,7 +6681,7 @@
       <c r="G55" t="s">
         <v>288</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5441,7 +6689,7 @@
       <c r="G56" t="s">
         <v>289</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5449,7 +6697,7 @@
       <c r="G57" t="s">
         <v>290</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5457,7 +6705,7 @@
       <c r="G58" t="s">
         <v>299</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5465,7 +6713,7 @@
       <c r="G59" t="s">
         <v>308</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5473,7 +6721,7 @@
       <c r="G60" t="s">
         <v>333</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5481,7 +6729,7 @@
       <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5489,7 +6737,7 @@
       <c r="G62" t="s">
         <v>306</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5497,7 +6745,7 @@
       <c r="G63" t="s">
         <v>365</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5505,7 +6753,7 @@
       <c r="G64" t="s">
         <v>366</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5513,7 +6761,7 @@
       <c r="G65" t="s">
         <v>341</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5521,7 +6769,7 @@
       <c r="G66" t="s">
         <v>309</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5529,7 +6777,7 @@
       <c r="G67" t="s">
         <v>265</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5537,7 +6785,7 @@
       <c r="G68" t="s">
         <v>349</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5545,7 +6793,7 @@
       <c r="G69" t="s">
         <v>310</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5553,7 +6801,7 @@
       <c r="G70" t="s">
         <v>406</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5561,7 +6809,7 @@
       <c r="G71" t="s">
         <v>300</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5569,7 +6817,7 @@
       <c r="G72" t="s">
         <v>407</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5577,7 +6825,7 @@
       <c r="G73" t="s">
         <v>258</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5585,7 +6833,7 @@
       <c r="G74" t="s">
         <v>565</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5593,7 +6841,7 @@
       <c r="G75" t="s">
         <v>340</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5601,7 +6849,7 @@
       <c r="G76" t="s">
         <v>276</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5609,7 +6857,7 @@
       <c r="G77" t="s">
         <v>282</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5617,7 +6865,7 @@
       <c r="G78" t="s">
         <v>287</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5625,7 +6873,7 @@
       <c r="G79" t="s">
         <v>425</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5633,7 +6881,7 @@
       <c r="G80" t="s">
         <v>328</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>550</v>
       </c>
     </row>
@@ -5641,7 +6889,7 @@
       <c r="G81" t="s">
         <v>266</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5649,7 +6897,7 @@
       <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5657,7 +6905,7 @@
       <c r="G83" t="s">
         <v>283</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5665,7 +6913,7 @@
       <c r="G84" t="s">
         <v>272</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5673,7 +6921,7 @@
       <c r="G85" t="s">
         <v>267</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5681,7 +6929,7 @@
       <c r="G86" t="s">
         <v>284</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5689,7 +6937,7 @@
       <c r="G87" t="s">
         <v>268</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5697,7 +6945,7 @@
       <c r="G88" t="s">
         <v>269</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5705,7 +6953,7 @@
       <c r="G89" t="s">
         <v>301</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5713,7 +6961,7 @@
       <c r="G90" t="s">
         <v>307</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5721,7 +6969,7 @@
       <c r="G91" t="s">
         <v>291</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5729,7 +6977,7 @@
       <c r="G92" t="s">
         <v>336</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5737,7 +6985,7 @@
       <c r="G93" t="s">
         <v>273</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5745,172 +6993,172 @@
       <c r="G94" t="s">
         <v>274</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
+++ b/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
@@ -31,7 +31,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -54,7 +54,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -2174,13 +2174,34 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="159" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2691,8 +2712,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3391,8 +3917,858 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -4558,6 +5934,1416 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4565,7 +7351,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="185">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4853,52 +7639,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="111" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="126" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="129" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="135" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="85" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="141" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="144" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="156" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="159" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="162" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="165" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="101" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="171" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="174" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="186" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="189" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="192" fontId="114" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="195" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="117" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="204" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="207" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="207" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="219" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="222" fontId="130" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="225" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="231" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="234" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="237" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="237" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="249" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="252" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="255" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="261" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="264" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5709,7 +8735,7 @@
         <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -5777,7 +8803,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -5836,7 +8862,7 @@
         <v>311</v>
       </c>
       <c r="N7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -5894,6 +8920,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>587</v>
+      </c>
       <c r="Q8" t="s">
         <v>89</v>
       </c>
@@ -5947,6 +8976,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>590</v>
+      </c>
       <c r="Q9" t="s">
         <v>90</v>
       </c>
@@ -5988,6 +9020,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>582</v>
+      </c>
       <c r="Q10" t="s">
         <v>433</v>
       </c>
@@ -6026,6 +9061,9 @@
       <c r="M11" t="s">
         <v>467</v>
       </c>
+      <c r="N11" t="s">
+        <v>583</v>
+      </c>
       <c r="Q11" t="s">
         <v>91</v>
       </c>
@@ -6061,6 +9099,9 @@
       <c r="M12" t="s">
         <v>432</v>
       </c>
+      <c r="N12" t="s">
+        <v>584</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -6376,7 +9417,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>588</v>
       </c>
       <c r="Y25" t="s">
         <v>108</v>
@@ -6393,7 +9434,7 @@
         <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="Y26" t="s">
         <v>109</v>
@@ -6410,7 +9451,7 @@
         <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Y27" t="s">
         <v>110</v>
@@ -6427,7 +9468,7 @@
         <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>323</v>
@@ -6442,6 +9483,9 @@
       </c>
       <c r="G29" t="s">
         <v>280</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>111</v>

--- a/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
+++ b/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -2195,13 +2195,16 @@
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="159" x14ac:knownFonts="1">
+  <fonts count="175" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3217,8 +3220,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="304">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4767,8 +4871,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -7344,6 +7618,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7351,7 +7907,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7879,52 +8435,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="249" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="249" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="252" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="252" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="255" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="255" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="261" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="261" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="264" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="264" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="267" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="267" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="276" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="279" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="282" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="285" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="291" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="294" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8545,7 +9149,7 @@
         <v>453</v>
       </c>
       <c r="D3" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="E3" t="s">
         <v>454</v>
@@ -8628,7 +9232,7 @@
         <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -8711,7 +9315,7 @@
         <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E5" t="s">
         <v>455</v>
@@ -8780,6 +9384,9 @@
       </c>
       <c r="B6" t="s">
         <v>372</v>
+      </c>
+      <c r="D6" t="s">
+        <v>546</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>

--- a/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
+++ b/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -2198,13 +2198,16 @@
   <si>
     <t>purgeQueue(profile,queue,var)</t>
   </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="175" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3321,8 +3324,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="304">
+  <fills count="364">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5041,8 +5246,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7900,6 +8445,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7907,7 +9016,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8483,52 +9592,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="276" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="276" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="279" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="279" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="282" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="282" fontId="162" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="285" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="285" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="291" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="291" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="294" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="294" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="297" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="297" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="306" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="309" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="312" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="315" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="321" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="324" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="327" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="327" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="336" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="339" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="342" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="345" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="351" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="354" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10024,7 +11229,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="Y25" t="s">
         <v>108</v>

--- a/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
+++ b/examples/jsonpath-select/artifact/script/JsonPathFunctions.xlsx
@@ -23,17 +23,17 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -47,14 +47,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9315" uniqueCount="612">
   <si>
     <t>description</t>
   </si>
@@ -2201,13 +2202,67 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="207" x14ac:knownFonts="1">
+  <fonts count="271" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3526,8 +3581,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="364">
+  <fills count="472">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5586,8 +6045,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="467">
     <border>
       <left/>
       <right/>
@@ -9009,6 +10080,1310 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9016,7 +11391,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="297">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9688,52 +12063,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="336" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="336" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="339" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="339" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="342" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="342" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="345" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="345" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="197" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="351" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="351" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="354" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="354" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="357" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="357" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="366" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="369" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="372" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="375" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="213" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="381" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="372" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="384" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="384" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="393" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="396" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="399" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="402" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="229" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="408" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="399" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="411" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="411" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="420" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="423" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="426" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="429" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="245" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="435" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="426" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="438" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="438" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="447" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="450" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="453" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="456" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="462" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="453" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10148,7 +12715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10233,21 +12800,24 @@
         <v>393</v>
       </c>
       <c r="Y1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -10325,21 +12895,24 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>428</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>551</v>
       </c>
     </row>
@@ -10410,22 +12983,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -10493,22 +13066,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>420</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -10534,6 +13107,9 @@
       <c r="H5" t="s">
         <v>456</v>
       </c>
+      <c r="I5" t="s">
+        <v>596</v>
+      </c>
       <c r="J5" t="s">
         <v>347</v>
       </c>
@@ -10564,22 +13140,22 @@
       <c r="W5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>351</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>421</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10632,22 +13208,22 @@
       <c r="W6" t="s">
         <v>357</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>441</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>422</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10667,6 +13243,9 @@
       <c r="H7" t="s">
         <v>443</v>
       </c>
+      <c r="J7" t="s">
+        <v>597</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -10691,23 +13270,23 @@
       <c r="W7" t="s">
         <v>356</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>442</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>423</v>
       </c>
-      <c r="AD7" t="s">
-        <v>228</v>
+      <c r="AE7" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="8">
@@ -10747,23 +13326,23 @@
       <c r="W8" t="s">
         <v>358</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>424</v>
       </c>
-      <c r="AD8" t="s">
-        <v>229</v>
+      <c r="AE8" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="9">
@@ -10803,14 +13382,14 @@
       <c r="W9" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
-        <v>230</v>
+      <c r="AE9" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="10">
@@ -10844,14 +13423,14 @@
       <c r="T10" t="s">
         <v>402</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
-        <v>470</v>
+      <c r="AE10" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -10882,14 +13461,14 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
-        <v>552</v>
+      <c r="AE11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12">
@@ -10909,7 +13488,7 @@
         <v>386</v>
       </c>
       <c r="M12" t="s">
-        <v>432</v>
+        <v>598</v>
       </c>
       <c r="N12" t="s">
         <v>584</v>
@@ -10920,14 +13499,14 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
-        <v>553</v>
+      <c r="AE12" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -10947,7 +13526,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="Q13" t="s">
         <v>92</v>
@@ -10955,14 +13534,14 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
-        <v>554</v>
+      <c r="AE13" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="14">
@@ -10982,7 +13561,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>468</v>
       </c>
       <c r="Q14" t="s">
         <v>93</v>
@@ -10990,14 +13569,14 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
-        <v>555</v>
+      <c r="AE14" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="15">
@@ -11014,7 +13593,7 @@
         <v>562</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>547</v>
@@ -11022,14 +13601,14 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
-        <v>471</v>
+      <c r="AE15" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="16">
@@ -11046,7 +13625,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>548</v>
@@ -11054,14 +13633,14 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
-        <v>556</v>
+      <c r="AE16" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="17">
@@ -11077,14 +13656,17 @@
       <c r="K17" t="s">
         <v>80</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
         <v>549</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>463</v>
       </c>
-      <c r="AD17" t="s">
-        <v>557</v>
+      <c r="AE17" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="18">
@@ -11100,11 +13682,11 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
-        <v>558</v>
+      <c r="AE18" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="19">
@@ -11120,11 +13702,11 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
-        <v>231</v>
+      <c r="AE19" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="20">
@@ -11140,11 +13722,11 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
-        <v>232</v>
+      <c r="AE20" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="21">
@@ -11160,11 +13742,11 @@
       <c r="K21" t="s">
         <v>376</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
-        <v>233</v>
+      <c r="AE21" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="22">
@@ -11172,7 +13754,7 @@
         <v>409</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>608</v>
       </c>
       <c r="G22" t="s">
         <v>295</v>
@@ -11180,8 +13762,11 @@
       <c r="K22" t="s">
         <v>466</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>540</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="23">
@@ -11189,7 +13774,7 @@
         <v>353</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>286</v>
@@ -11197,8 +13782,11 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="24">
@@ -11206,7 +13794,7 @@
         <v>393</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
         <v>275</v>
@@ -11214,16 +13802,19 @@
       <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>107</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>607</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -11231,16 +13822,19 @@
       <c r="K25" t="s">
         <v>593</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>108</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="G26" t="s">
         <v>278</v>
@@ -11248,16 +13842,19 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>109</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>262</v>
@@ -11265,16 +13862,19 @@
       <c r="K27" t="s">
         <v>430</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>110</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>279</v>
@@ -11282,16 +13882,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G29" t="s">
         <v>280</v>
@@ -11299,722 +13899,747 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>564</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Y39" t="s">
-        <v>389</v>
+      <c r="Z39" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
-        <v>118</v>
+      <c r="Z40" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Y41" t="s">
-        <v>119</v>
+      <c r="Z41" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>120</v>
+        <v>610</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>121</v>
+        <v>285</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>122</v>
+        <v>296</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>123</v>
+        <v>297</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>435</v>
+        <v>339</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>209</v>
+        <v>338</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>75</v>
+        <v>207</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>124</v>
+        <v>316</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>125</v>
+        <v>335</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>126</v>
+        <v>364</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>535</v>
+        <v>298</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>460</v>
+        <v>352</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>127</v>
+        <v>327</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>342</v>
+        <v>264</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>461</v>
+        <v>288</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>128</v>
+        <v>289</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>129</v>
+        <v>611</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>130</v>
+        <v>290</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>131</v>
+        <v>299</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>132</v>
+        <v>308</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>133</v>
+        <v>333</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>134</v>
+        <v>305</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>436</v>
+        <v>306</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>469</v>
+        <v>365</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>210</v>
+        <v>366</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>385</v>
+        <v>341</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>437</v>
+        <v>309</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>135</v>
+        <v>265</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>136</v>
+        <v>594</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>137</v>
+        <v>310</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>138</v>
+        <v>406</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>193</v>
+        <v>300</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>565</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>194</v>
+        <v>407</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>449</v>
+        <v>258</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>462</v>
+        <v>565</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>139</v>
+        <v>340</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>140</v>
+        <v>276</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>141</v>
+        <v>282</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>550</v>
+        <v>287</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>142</v>
+        <v>425</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>143</v>
+        <v>328</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>195</v>
+        <v>266</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>541</v>
+        <v>277</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>196</v>
+        <v>283</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>450</v>
+        <v>272</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>197</v>
+        <v>595</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>198</v>
+        <v>267</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>211</v>
+        <v>284</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>144</v>
+        <v>268</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>199</v>
+        <v>269</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>438</v>
+        <v>301</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>439</v>
+        <v>307</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Y94" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
